--- a/stock_predictor_ai/data/cleaned/TIGR.xlsx
+++ b/stock_predictor_ai/data/cleaned/TIGR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1577"/>
+  <dimension ref="A1:F1578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31989,6 +31989,26 @@
         <v>516908</v>
       </c>
     </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>9.920000076293945</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>9.930000305175781</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>9.729999542236328</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>9.890000343322754</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>729868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/TIGR.xlsx
+++ b/stock_predictor_ai/data/cleaned/TIGR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1578"/>
+  <dimension ref="A1:F1579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32009,6 +32009,26 @@
         <v>729868</v>
       </c>
     </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>10.26000022888184</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>10.64000034332275</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>10.07999992370605</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>10.52000045776367</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>4458500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/TIGR.xlsx
+++ b/stock_predictor_ai/data/cleaned/TIGR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1579"/>
+  <dimension ref="A1:F1580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32029,6 +32029,26 @@
         <v>4458500</v>
       </c>
     </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>10.53999996185303</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>10.82999992370605</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>10.80000019073486</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>2156763</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/TIGR.xlsx
+++ b/stock_predictor_ai/data/cleaned/TIGR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1580"/>
+  <dimension ref="A1:F1581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32049,6 +32049,26 @@
         <v>2156763</v>
       </c>
     </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>12.09500026702881</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>12.23499965667725</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>11.82999992370605</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>12.0600004196167</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>3743093</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/TIGR.xlsx
+++ b/stock_predictor_ai/data/cleaned/TIGR.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1581"/>
+  <dimension ref="A1:F1576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31969,106 +31971,6 @@
         <v>3462400</v>
       </c>
     </row>
-    <row r="1577">
-      <c r="A1577" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B1577" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C1577" t="n">
-        <v>9.640000343322754</v>
-      </c>
-      <c r="D1577" t="n">
-        <v>9.439999580383301</v>
-      </c>
-      <c r="E1577" t="n">
-        <v>9.590000152587891</v>
-      </c>
-      <c r="F1577" t="n">
-        <v>516908</v>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B1578" t="n">
-        <v>9.920000076293945</v>
-      </c>
-      <c r="C1578" t="n">
-        <v>9.930000305175781</v>
-      </c>
-      <c r="D1578" t="n">
-        <v>9.729999542236328</v>
-      </c>
-      <c r="E1578" t="n">
-        <v>9.890000343322754</v>
-      </c>
-      <c r="F1578" t="n">
-        <v>729868</v>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B1579" t="n">
-        <v>10.26000022888184</v>
-      </c>
-      <c r="C1579" t="n">
-        <v>10.64000034332275</v>
-      </c>
-      <c r="D1579" t="n">
-        <v>10.07999992370605</v>
-      </c>
-      <c r="E1579" t="n">
-        <v>10.52000045776367</v>
-      </c>
-      <c r="F1579" t="n">
-        <v>4458500</v>
-      </c>
-    </row>
-    <row r="1580">
-      <c r="A1580" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B1580" t="n">
-        <v>10.53999996185303</v>
-      </c>
-      <c r="C1580" t="n">
-        <v>10.82999992370605</v>
-      </c>
-      <c r="D1580" t="n">
-        <v>10.39000034332275</v>
-      </c>
-      <c r="E1580" t="n">
-        <v>10.80000019073486</v>
-      </c>
-      <c r="F1580" t="n">
-        <v>2156763</v>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B1581" t="n">
-        <v>12.09500026702881</v>
-      </c>
-      <c r="C1581" t="n">
-        <v>12.23499965667725</v>
-      </c>
-      <c r="D1581" t="n">
-        <v>11.82999992370605</v>
-      </c>
-      <c r="E1581" t="n">
-        <v>12.0600004196167</v>
-      </c>
-      <c r="F1581" t="n">
-        <v>3743093</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
